--- a/Warrior-Pilgrims/Assets/Resources/Data/Damage/Damages.xlsx
+++ b/Warrior-Pilgrims/Assets/Resources/Data/Damage/Damages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Games\GitHub\Warrior-Pilgrims\Warrior-Pilgrims\Assets\Resources\Data\Damage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23FBE1D-9D5A-4D70-AD6A-92D23A36DA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09835408-E9CB-49AF-A179-6C651F538830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-25635" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <definedName name="DamageTypesForList">[1]!DamageTypes</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -149,7 +148,7 @@
       <definedName name="DamageTypes" refersTo="#REF!"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -452,7 +451,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
